--- a/sellerflash-otomasyon-linkler/Coffee,Tea,Espresso - Cookware.xlsx
+++ b/sellerflash-otomasyon-linkler/Coffee,Tea,Espresso - Cookware.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Library/CloudStorage/GoogleDrive-skywalkerpluton@gmail.com/Drive'ım/Amazon/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3B246D-EFB0-444F-9564-8E89D532F8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A533A3D-32ED-0D4F-86ED-48EF0E93AC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="16900" xr2:uid="{24CF3653-9A82-2845-A63C-02FCA986390E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -563,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C74E19-73E6-6744-9421-C50D83A9A241}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:B65">"'"&amp;A1:A65&amp;"',"</f>
+        <f t="array" ref="B1:B51">"'"&amp;A1:A51&amp;"',"</f>
         <v>'https://www.amazon.com/s?i=garden&amp;bbn=289750&amp;rh=n%3A1055398%2Cn%3A284507%2Cn%3A915194%2Cn%3A289750%2Cn%3A14092841%2Cp_72%3A1248915011%2Cp_36%3A1500-7700&amp;dc&amp;ds=v1%3Avd4k6JBEhdPuC437u3zB5ts4NZiYMwPYgdZZCS0B4CY&amp;qid=1687750582&amp;rnid=289750&amp;ref=sr_nr_n_3',</v>
       </c>
     </row>
@@ -978,76 +978,6 @@
       </c>
       <c r="B51" t="str">
         <v>'https://www.amazon.com/s?i=garden&amp;bbn=289814&amp;rh=n%3A1055398%2Cn%3A284507%2Cn%3A289814%2Cn%3A3737341%2Cp_72%3A1248915011%2Cp_36%3A1500-7700&amp;dc&amp;ds=v1%3ADClWsnxLxY%2BZ0luxmofJF0Le2jQ6TSsGCftf15ayG4E&amp;qid=1687751405&amp;rnid=289814&amp;ref=sr_nr_n_16',</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B52" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B54" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B56" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B57" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B58" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B59" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B60" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B61" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B62" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B63" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B64" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" t="str">
-        <v>'',</v>
       </c>
     </row>
   </sheetData>
